--- a/data/grid.xlsx
+++ b/data/grid.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal.grasman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\Marlin-ET5X\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD39B5-1422-45CE-A955-7313D5DA61A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF8DE1-CD1E-4C42-9955-B476612CE35B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6270" yWindow="4515" windowWidth="21600" windowHeight="11385" xr2:uid="{D5487E8D-C07B-4966-B20A-AEE2FDD4EA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -153,11 +145,11 @@
     <tableColumn id="3" xr3:uid="{FA1319DD-D260-445F-912B-830F32BEAC86}" name="I" dataDxfId="2">
       <calculatedColumnFormula>MOD(Table1[[#This Row],[X/Y]],10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{888286A8-2433-4B96-B73A-2C7272AD3C86}" name="J" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{888286A8-2433-4B96-B73A-2C7272AD3C86}" name="J" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.FLOOR.MATH(Table1[[#This Row],[X/Y]]/10,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C32E9FEF-CCC8-466D-9E91-6BC0E27D9448}" name="Cmd" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{C32E9FEF-CCC8-466D-9E91-6BC0E27D9448}" name="Cmd" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -463,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87DE52-C8E9-47F3-BDEF-B3D03D8793D3}">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +813,7 @@
         <v>5.499999999999991E-3</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" ref="Q4:U9" si="4">I3+$S$17/4</f>
+        <f t="shared" ref="U5:U8" si="4">I3+$S$17/4</f>
         <v>-0.14149999999999999</v>
       </c>
       <c r="V5" s="3">
@@ -873,7 +865,7 @@
         <v>0.05</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O4:O10" si="5">C6+$S$17/6</f>
+        <f t="shared" ref="O6:O10" si="5">C6+$S$17/6</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="P6" s="4">
@@ -1375,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J0 Z-0.027</v>
       </c>
     </row>
@@ -1392,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J0 Z-0.027</v>
       </c>
     </row>
@@ -1409,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J0 Z-0.02</v>
       </c>
     </row>
@@ -1426,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J0 Z-0.026</v>
       </c>
     </row>
@@ -1443,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J0 Z-0.024</v>
       </c>
     </row>
@@ -1460,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J0 Z-0.023</v>
       </c>
     </row>
@@ -1477,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J0 Z-0.055</v>
       </c>
     </row>
@@ -1494,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J0 Z-0.09</v>
       </c>
     </row>
@@ -1511,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J0 Z-0.141</v>
       </c>
     </row>
@@ -1528,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J0 Z-0.141</v>
       </c>
     </row>
@@ -1545,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J1 Z-0.031</v>
       </c>
     </row>
@@ -1562,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J1 Z-0.01</v>
       </c>
     </row>
@@ -1579,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J1 Z-0.013</v>
       </c>
     </row>
@@ -1596,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J1 Z-0.006</v>
       </c>
     </row>
@@ -1613,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J1 Z-0.02</v>
       </c>
     </row>
@@ -1630,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J1 Z-0.03</v>
       </c>
     </row>
@@ -1647,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J1 Z-0.061</v>
       </c>
     </row>
@@ -1664,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J1 Z-0.096</v>
       </c>
     </row>
@@ -1681,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J1 Z-0.144</v>
       </c>
     </row>
@@ -1698,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J1 Z-0.169</v>
       </c>
     </row>
@@ -1715,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J2 Z-0.028</v>
       </c>
     </row>
@@ -1732,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J2 Z-0.017</v>
       </c>
     </row>
@@ -1749,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J2 Z-0.0185</v>
       </c>
     </row>
@@ -1766,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J2 Z0.0025</v>
       </c>
     </row>
@@ -1783,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J2 Z-0.0275</v>
       </c>
     </row>
@@ -1800,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J2 Z-0.0485</v>
       </c>
     </row>
@@ -1817,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J2 Z-0.0795</v>
       </c>
     </row>
@@ -1834,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J2 Z-0.1135</v>
       </c>
     </row>
@@ -1851,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J2 Z-0.172</v>
       </c>
     </row>
@@ -1868,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J2 Z-0.197</v>
       </c>
     </row>
@@ -1885,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J3 Z0.011</v>
       </c>
     </row>
@@ -1902,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J3 Z0.03</v>
       </c>
     </row>
@@ -1919,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J3 Z0.0365</v>
       </c>
     </row>
@@ -1936,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J3 Z0.1165</v>
       </c>
     </row>
@@ -1953,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J3 Z0.0955</v>
       </c>
     </row>
@@ -1970,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J3 Z0.0765</v>
       </c>
     </row>
@@ -1987,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J3 Z0.0245</v>
       </c>
     </row>
@@ -2004,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J3 Z-0.1005</v>
       </c>
     </row>
@@ -2021,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J3 Z-0.155</v>
       </c>
     </row>
@@ -2038,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J3 Z-0.18</v>
       </c>
     </row>
@@ -2055,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J4 Z0.031</v>
       </c>
     </row>
@@ -2072,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J4 Z0.043</v>
       </c>
     </row>
@@ -2089,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J4 Z0.0425</v>
       </c>
     </row>
@@ -2106,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J4 Z0.1295</v>
       </c>
     </row>
@@ -2123,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J4 Z0.138</v>
       </c>
     </row>
@@ -2140,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J4 Z0.116</v>
       </c>
     </row>
@@ -2157,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J4 Z0.0115</v>
       </c>
     </row>
@@ -2174,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J4 Z-0.1055</v>
       </c>
     </row>
@@ -2191,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J4 Z-0.153</v>
       </c>
     </row>
@@ -2208,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J4 Z-0.178</v>
       </c>
     </row>
@@ -2225,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J5 Z0.05</v>
       </c>
     </row>
@@ -2242,7 +2234,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J5 Z0.058</v>
       </c>
     </row>
@@ -2259,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J5 Z0.0535</v>
       </c>
     </row>
@@ -2276,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J5 Z0.1355</v>
       </c>
     </row>
@@ -2293,7 +2285,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J5 Z0.145</v>
       </c>
     </row>
@@ -2310,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J5 Z0.099</v>
       </c>
     </row>
@@ -2327,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J5 Z0.0175</v>
       </c>
     </row>
@@ -2344,7 +2336,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J5 Z-0.1745</v>
       </c>
     </row>
@@ -2361,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J5 Z-0.155</v>
       </c>
     </row>
@@ -2378,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J5 Z-0.18</v>
       </c>
     </row>
@@ -2395,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J6 Z0.047</v>
       </c>
     </row>
@@ -2412,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J6 Z0.058</v>
       </c>
     </row>
@@ -2429,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J6 Z0.0565</v>
       </c>
     </row>
@@ -2446,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J6 Z0.1265</v>
       </c>
     </row>
@@ -2463,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J6 Z0.0875</v>
       </c>
     </row>
@@ -2480,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J6 Z0.0595</v>
       </c>
     </row>
@@ -2497,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J6 Z0.00549999999999999</v>
       </c>
     </row>
@@ -2514,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="F85" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J6 Z-0.1415</v>
       </c>
     </row>
@@ -2531,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="F86" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J6 Z-0.164</v>
       </c>
     </row>
@@ -2548,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J6 Z-0.189</v>
       </c>
     </row>
@@ -2565,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J7 Z0.054</v>
       </c>
     </row>
@@ -2582,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J7 Z0.03</v>
       </c>
     </row>
@@ -2599,7 +2591,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J7 Z-0.0065</v>
       </c>
     </row>
@@ -2616,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J7 Z-0.0055</v>
       </c>
     </row>
@@ -2633,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J7 Z-0.0395</v>
       </c>
     </row>
@@ -2650,7 +2642,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J7 Z-0.0675</v>
       </c>
     </row>
@@ -2667,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J7 Z-0.1305</v>
       </c>
     </row>
@@ -2684,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J7 Z-0.1745</v>
       </c>
     </row>
@@ -2701,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J7 Z-0.244</v>
       </c>
     </row>
@@ -2718,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J7 Z-0.269</v>
       </c>
     </row>
@@ -2735,7 +2727,7 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J8 Z0.022</v>
       </c>
     </row>
@@ -2752,7 +2744,7 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J8 Z0.027</v>
       </c>
     </row>
@@ -2769,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J8 Z0.006</v>
       </c>
     </row>
@@ -2786,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J8 Z-0.005</v>
       </c>
     </row>
@@ -2803,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J8 Z-0.034</v>
       </c>
     </row>
@@ -2820,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J8 Z-0.061</v>
       </c>
     </row>
@@ -2837,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J8 Z-0.105</v>
       </c>
     </row>
@@ -2854,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J8 Z-0.154</v>
       </c>
     </row>
@@ -2871,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J8 Z-0.198</v>
       </c>
     </row>
@@ -2888,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J8 Z-0.223</v>
       </c>
     </row>
@@ -2905,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I0 J9 Z0.002</v>
       </c>
     </row>
@@ -2922,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I1 J9 Z0.002</v>
       </c>
     </row>
@@ -2939,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I2 J9 Z0.006</v>
       </c>
     </row>
@@ -2956,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I3 J9 Z-0.017</v>
       </c>
     </row>
@@ -2973,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I4 J9 Z-0.041</v>
       </c>
     </row>
@@ -2990,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I5 J9 Z-0.067</v>
       </c>
     </row>
@@ -3007,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I6 J9 Z-0.092</v>
       </c>
     </row>
@@ -3024,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I7 J9 Z-0.146</v>
       </c>
     </row>
@@ -3041,7 +3033,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I8 J9 Z-0.178</v>
       </c>
     </row>
@@ -3058,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
+        <f ca="1">CONCATENATE("M421 I",Table1[[#This Row],[I]], " J",Table1[[#This Row],[J]]," Z", INDIRECT(ADDRESS(11-Table1[[#This Row],[J]],14+Table1[[#This Row],[I]])))</f>
         <v>M421 I9 J9 Z-0.178</v>
       </c>
     </row>
